--- a/12_Модуль/ПРАКТИКА/12.2 Практическая работа.xlsx
+++ b/12_Модуль/ПРАКТИКА/12.2 Практическая работа.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\12_Модуль\ПРАКТИКА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB545702-B84D-4177-B06F-1E2DD190C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8439F3B-2513-445E-9137-B026693178C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{0A95A732-5BCA-444D-8815-7F37AC8A3610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0A95A732-5BCA-444D-8815-7F37AC8A3610}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Имя и фамилия</t>
   </si>
@@ -326,7 +326,218 @@
     <cellStyle name="Заголовок 3" xfId="1" builtinId="18"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -857,10 +1068,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="1809750"/>
     <xdr:sp macro="" textlink="">
@@ -876,7 +1087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4568190" y="358140"/>
+          <a:off x="6351270" y="407670"/>
           <a:ext cx="5610225" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1109,7 +1320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1397,7 +1608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1407,22 +1618,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F80A4-173F-4BCB-ADDA-F60432261DD4}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1673,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1693,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1713,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1733,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1542,7 +1753,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1773,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1582,7 +1793,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1602,7 +1813,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1833,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +1853,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1662,7 +1873,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1893,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1702,7 +1913,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1722,7 +1933,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1742,7 +1953,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1973,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1782,7 +1993,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1802,7 +2013,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +2033,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1842,22 +2053,27 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:F21">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>$E2="Офис"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1865,16 +2081,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A83E679-7459-42D1-92BF-BC49B9FC7C09}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +2103,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +2114,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +2125,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +2136,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +2147,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +2158,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +2169,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1962,7 +2180,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +2191,89 @@
         <v>1546</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1505</v>
+      </c>
+      <c r="C10">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>1505</v>
+      </c>
+      <c r="C11">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1505</v>
+      </c>
+      <c r="C12">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>1505</v>
+      </c>
+      <c r="C13">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>1505</v>
+      </c>
+      <c r="C14">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>1505</v>
+      </c>
+      <c r="C15">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1505</v>
+      </c>
+      <c r="C16">
+        <v>1205</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B2&gt;C2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1981,18 +2281,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BCF1D-A457-4A37-A9B2-882C117DDD91}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" customWidth="1"/>
-    <col min="2" max="2" width="14.41796875" customWidth="1"/>
-    <col min="3" max="3" width="15.578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -2003,214 +2306,337 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">DATE(YEAR(TODAY()),1,12)</f>
-        <v>44573</v>
+        <v>44938</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">DATE(YEAR(TODAY()),1,23)</f>
-        <v>44584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>44949</v>
+      </c>
+      <c r="D2" t="b">
+        <f ca="1">AND(TODAY()&gt;=B2,TODAY()&lt;=C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f ca="1">IF(AND(TODAY()&lt;&gt;B2,TODAY()&lt;&gt;C2),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">DATE(YEAR(TODAY()),2,1)</f>
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C3" s="6">
         <f ca="1">DATE(YEAR(TODAY()),2,27)</f>
-        <v>44619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>44984</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D15" ca="1" si="0">AND(TODAY()&gt;=B3,TODAY()&lt;=C3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" ca="1" si="1">IF(AND(TODAY()&lt;&gt;B3,TODAY()&lt;&gt;C3),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="6">
         <f ca="1">DATE(YEAR(TODAY()),3,5)</f>
-        <v>44625</v>
+        <v>44990</v>
       </c>
       <c r="C4" s="6">
         <f ca="1">DATE(YEAR(TODAY()),4,30)</f>
-        <v>44681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45046</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="6">
         <f ca="1">DATE(YEAR(TODAY()),4,1)</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C5" s="6">
         <f ca="1">DATE(YEAR(TODAY()),7,1)</f>
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45108</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="6">
         <f ca="1">DATE(YEAR(TODAY()),4,1)</f>
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C6" s="6">
         <f ca="1">DATE(YEAR(TODAY()),4,20)</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45036</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="6">
         <f ca="1">DATE(YEAR(TODAY()),5,1)</f>
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C7" s="6">
         <f ca="1">DATE(YEAR(TODAY()),7,20)</f>
-        <v>44762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45127</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="6">
         <f ca="1">DATE(YEAR(TODAY()),6,15)</f>
-        <v>44727</v>
+        <v>45092</v>
       </c>
       <c r="C8" s="6">
         <f ca="1">DATE(YEAR(TODAY()),8,1)</f>
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45139</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="6">
         <f ca="1">DATE(YEAR(TODAY()),6,15)</f>
-        <v>44727</v>
+        <v>45092</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">DATE(YEAR(TODAY()),9,1)</f>
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45170</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="6">
         <f ca="1">DATE(YEAR(TODAY()),8,1)</f>
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">DATE(YEAR(TODAY()),9,1)</f>
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45170</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="6">
         <f ca="1">DATE(YEAR(TODAY()),8,1)</f>
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C11" s="6">
-        <f ca="1">DATE(YEAR(TODAY()),9,15)</f>
-        <v>44819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f ca="1">DATE(YEAR(TODAY()),12,15)</f>
+        <v>45275</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="6">
         <f ca="1">DATE(YEAR(TODAY()),10,1)</f>
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">DATE(YEAR(TODAY()),11,15)</f>
-        <v>44880</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f ca="1">DATE(YEAR(TODAY()),12,17)</f>
+        <v>45277</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="6">
         <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
-        <v>44854</v>
+        <v>45219</v>
       </c>
       <c r="C13" s="6">
-        <f ca="1">DATE(YEAR(TODAY()),12,1)</f>
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f ca="1">DATE(YEAR(TODAY()),12,19)</f>
+        <v>45279</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="6">
         <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
-        <v>44854</v>
+        <v>45219</v>
       </c>
       <c r="C14" s="6">
-        <f ca="1">DATE(YEAR(TODAY()),12,1)</f>
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f ca="1">DATE(YEAR(TODAY()),12,21)</f>
+        <v>45281</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="6">
         <f ca="1">DATE(YEAR(TODAY()),12,31)</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="C15" s="6">
         <f ca="1">DATE(YEAR(TODAY())+1,12,25)</f>
-        <v>45285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>45651</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f ca="1">IF(TODAY()&lt;B15,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A15">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND(TODAY()&gt;=B2,TODAY()&lt;=C2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>NOT(AND(TODAY()&gt;=B2,TODAY()&lt;=C2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>IF(TODAY()&lt;B2,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
